--- a/workflow/notebooks/filter_filename_overview.xlsx
+++ b/workflow/notebooks/filter_filename_overview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephinelovemachine/soyadapt_data_analysis/workflow/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C45262C2-FE89-9840-8265-5265E676C957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B13014-3E8A-464A-A290-E31109C3C33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{FD3C29A1-7EF4-334D-B80E-034EF062DF78}"/>
+    <workbookView xWindow="3420" yWindow="780" windowWidth="21960" windowHeight="16940" xr2:uid="{FD3C29A1-7EF4-334D-B80E-034EF062DF78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="110">
   <si>
     <t>snp_sbpa.vcf.gz</t>
   </si>
@@ -3295,6 +3295,15 @@
   </si>
   <si>
     <t xml:space="preserve">wgs_maf5.vcf.gz slip into the two populations. </t>
+  </si>
+  <si>
+    <t>in R</t>
+  </si>
+  <si>
+    <t>wgsgds.3</t>
+  </si>
+  <si>
+    <t>gds.cca &amp; gds.sbpa</t>
   </si>
 </sst>
 </file>
@@ -3490,7 +3499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3518,10 +3527,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3560,9 +3566,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3576,8 +3579,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3593,10 +3596,7 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3620,13 +3620,10 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3635,10 +3632,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3958,20 +3951,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B4530E-F0A9-564A-BF6E-54CBFF2B68A4}">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="84" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="68.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="71" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="124.1640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="43" style="5" customWidth="1"/>
-    <col min="6" max="6" width="86" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="86" style="5" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="5"/>
     <col min="8" max="8" width="44.6640625" style="5" customWidth="1"/>
     <col min="9" max="9" width="71.6640625" style="5" bestFit="1" customWidth="1"/>
@@ -3981,28 +3974,31 @@
     <col min="13" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="19">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:14" ht="19">
+      <c r="A1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="46" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" s="43" customFormat="1">
-      <c r="A2" s="52" t="s">
+      <c r="F1" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="41" customFormat="1">
+      <c r="A2" s="49" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:14">
+      <c r="A3" s="46" t="s">
         <v>50</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -4011,15 +4007,18 @@
       <c r="C3" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="49" t="s">
+      <c r="F3" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="46" t="s">
         <v>51</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -4028,15 +4027,18 @@
       <c r="C4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="49" t="s">
+      <c r="F4" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="46" t="s">
         <v>52</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -4045,13 +4047,18 @@
       <c r="C5" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="49" t="s">
+      <c r="D5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="46" t="s">
         <v>53</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -4060,22 +4067,23 @@
       <c r="C6" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" s="43" customFormat="1">
-      <c r="A7" s="52" t="s">
+      <c r="F6" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="41" customFormat="1">
+      <c r="A7" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="49" t="s">
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="46" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -4084,16 +4092,19 @@
       <c r="C8" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="26"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="49" t="s">
+      <c r="F8" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="24"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="46" t="s">
         <v>57</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -4108,215 +4119,208 @@
       <c r="E9" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="E11" s="25"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="E12" s="25"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="E13" s="25"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="49" t="s">
+      <c r="F9" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-    </row>
-    <row r="15" spans="1:15" s="23" customFormat="1" ht="19" thickBot="1">
-      <c r="A15" s="50" t="s">
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+    </row>
+    <row r="15" spans="1:14" s="22" customFormat="1" ht="19" thickBot="1">
+      <c r="A15" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="N15" s="27"/>
-    </row>
-    <row r="16" spans="1:15" ht="19" thickBot="1">
-      <c r="A16" s="49" t="s">
+      <c r="N15" s="25"/>
+    </row>
+    <row r="16" spans="1:14" ht="19" thickBot="1">
+      <c r="A16" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="M16" s="12"/>
       <c r="N16" s="11"/>
-      <c r="O16" s="12"/>
-    </row>
-    <row r="17" spans="1:15" s="22" customFormat="1">
-      <c r="A17" s="29" t="s">
+    </row>
+    <row r="17" spans="1:14" s="21" customFormat="1">
+      <c r="A17" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="N17" s="21"/>
-    </row>
-    <row r="18" spans="1:15" s="12" customFormat="1">
-      <c r="A18" s="32" t="s">
+      <c r="N17" s="20"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="5" t="s">
         <v>83</v>
       </c>
       <c r="N18" s="11"/>
     </row>
-    <row r="19" spans="1:15" s="12" customFormat="1">
-      <c r="A19" s="32" t="s">
+    <row r="19" spans="1:14">
+      <c r="A19" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="5" t="s">
         <v>83</v>
       </c>
       <c r="N19" s="11"/>
     </row>
-    <row r="20" spans="1:15" s="12" customFormat="1">
-      <c r="A20" s="35" t="s">
+    <row r="20" spans="1:14">
+      <c r="A20" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="5" t="s">
         <v>98</v>
       </c>
       <c r="N20" s="11"/>
     </row>
-    <row r="21" spans="1:15" s="23" customFormat="1" ht="77" thickBot="1">
-      <c r="A21" s="36" t="s">
+    <row r="21" spans="1:14" s="22" customFormat="1" ht="77" thickBot="1">
+      <c r="A21" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="N21" s="27"/>
-    </row>
-    <row r="22" spans="1:15" s="43" customFormat="1" ht="19" thickBot="1">
-      <c r="A22" s="40"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="42"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="44"/>
-    </row>
-    <row r="23" spans="1:15" s="9" customFormat="1" ht="134" thickBot="1">
+      <c r="N21" s="25"/>
+    </row>
+    <row r="22" spans="1:14" s="41" customFormat="1" ht="19" thickBot="1">
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="40"/>
+      <c r="N22" s="42"/>
+    </row>
+    <row r="23" spans="1:14" s="9" customFormat="1" ht="134" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="26" t="s">
         <v>91</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="43" customFormat="1" ht="19" thickBot="1">
-      <c r="A24" s="46"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="42"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-    </row>
-    <row r="25" spans="1:15" s="9" customFormat="1" ht="19" thickBot="1">
+    <row r="24" spans="1:14" s="41" customFormat="1" ht="19" thickBot="1">
+      <c r="A24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="40"/>
+    </row>
+    <row r="25" spans="1:14" s="9" customFormat="1" ht="19" thickBot="1">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="43" customFormat="1" ht="19" thickBot="1"/>
-    <row r="27" spans="1:15" s="9" customFormat="1" ht="58" thickBot="1">
+    <row r="26" spans="1:14" s="41" customFormat="1" ht="19" thickBot="1"/>
+    <row r="27" spans="1:14" s="9" customFormat="1" ht="39" thickBot="1">
       <c r="A27" s="6" t="s">
         <v>15</v>
       </c>
@@ -4336,42 +4340,42 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="44" customFormat="1" ht="19" thickBot="1">
-      <c r="A28" s="53"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="F28" s="55"/>
-    </row>
-    <row r="29" spans="1:15" s="16" customFormat="1" ht="19" thickBot="1">
-      <c r="A29" s="13" t="s">
+    <row r="28" spans="1:14" s="41" customFormat="1" ht="19" thickBot="1">
+      <c r="A28" s="44"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="F28" s="51"/>
+    </row>
+    <row r="29" spans="1:14" s="15" customFormat="1" ht="19" thickBot="1">
+      <c r="A29" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="15"/>
-    </row>
-    <row r="30" spans="1:15" s="9" customFormat="1" ht="20" thickBot="1">
-      <c r="A30" s="13" t="s">
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:14" s="9" customFormat="1" ht="20" thickBot="1">
+      <c r="A30" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="13" t="s">
         <v>37</v>
       </c>
       <c r="E30" s="9" t="s">
@@ -4381,15 +4385,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="44" customFormat="1" ht="19" thickBot="1">
-      <c r="A31" s="53"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="F31" s="55"/>
-    </row>
-    <row r="32" spans="1:15" s="9" customFormat="1" ht="19" thickBot="1">
-      <c r="A32" s="17" t="s">
+    <row r="31" spans="1:14" s="41" customFormat="1" ht="19" thickBot="1">
+      <c r="A31" s="44"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="F31" s="51"/>
+    </row>
+    <row r="32" spans="1:14" s="9" customFormat="1" ht="19" thickBot="1">
+      <c r="A32" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -4406,7 +4410,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" s="9" customFormat="1" ht="19" thickBot="1">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -4422,29 +4426,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="43" customFormat="1"/>
+    <row r="34" spans="1:6" s="41" customFormat="1"/>
     <row r="38" spans="1:6" ht="19" thickBot="1">
-      <c r="A38" s="50" t="s">
+      <c r="A38" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="50" t="s">
+      <c r="D38" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="50" t="s">
+      <c r="E38" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="F38" s="50" t="s">
+      <c r="F38" s="47" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="19" thickBot="1">
-      <c r="A39" s="49" t="s">
+      <c r="A39" s="46" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4465,36 +4469,36 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="43" customFormat="1" ht="19" thickBot="1"/>
+    <row r="41" spans="1:6" s="41" customFormat="1" ht="19" thickBot="1"/>
     <row r="42" spans="1:6" s="9" customFormat="1" ht="19" thickBot="1">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="19" t="s">
         <v>43</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F42" s="15"/>
+      <c r="F42" s="14"/>
     </row>
     <row r="43" spans="1:6" s="9" customFormat="1" ht="20" thickBot="1">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="19" t="s">
         <v>42</v>
       </c>
       <c r="E43" s="9" t="s">
@@ -4504,9 +4508,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="43" customFormat="1" ht="19" thickBot="1"/>
-    <row r="45" spans="1:6" s="9" customFormat="1" ht="58" thickBot="1">
-      <c r="A45" s="17" t="s">
+    <row r="44" spans="1:6" s="41" customFormat="1" ht="19" thickBot="1"/>
+    <row r="45" spans="1:6" s="9" customFormat="1" ht="39" thickBot="1">
+      <c r="A45" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -4525,18 +4529,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="43" customFormat="1" ht="19" thickBot="1"/>
+    <row r="46" spans="1:6" s="41" customFormat="1" ht="19" thickBot="1"/>
     <row r="47" spans="1:6" s="9" customFormat="1" ht="96" thickBot="1">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="56" t="s">
+      <c r="C47" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="D47" s="56" t="s">
+      <c r="D47" s="52" t="s">
         <v>31</v>
       </c>
       <c r="E47" s="9" t="s">
@@ -4546,12 +4550,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="43" customFormat="1" ht="19" thickBot="1">
-      <c r="A48" s="57"/>
-      <c r="C48" s="58"/>
+    <row r="48" spans="1:6" s="41" customFormat="1" ht="19" thickBot="1">
+      <c r="A48" s="53"/>
+      <c r="C48" s="50"/>
     </row>
     <row r="49" spans="1:6" s="9" customFormat="1" ht="19" thickBot="1">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B49" s="7" t="s">
@@ -4571,11 +4575,11 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="C50" s="24"/>
+      <c r="C50" s="23"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4592,43 +4596,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="49.6640625" style="59" customWidth="1"/>
-    <col min="2" max="2" width="47.33203125" style="59" customWidth="1"/>
-    <col min="3" max="3" width="75.5" style="59" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" style="59" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="77.1640625" style="59" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="72.6640625" style="59" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="59"/>
+    <col min="1" max="1" width="49.6640625" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" customWidth="1"/>
+    <col min="3" max="3" width="75.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="72.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="14" spans="2:6" ht="19">
-      <c r="B14" s="51" t="s">
+    <row r="14" spans="2:6" ht="38">
+      <c r="B14" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="49" t="s">
+      <c r="E14" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="49" t="s">
+      <c r="F14" s="46" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="18">
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
     </row>
     <row r="16" spans="2:6" ht="18">
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="46" t="s">
         <v>50</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -4637,15 +4640,15 @@
       <c r="D16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="18">
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="46" t="s">
         <v>51</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -4654,15 +4657,15 @@
       <c r="D17" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="18">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="46" t="s">
         <v>52</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -4671,13 +4674,13 @@
       <c r="D18" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12" t="s">
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="18">
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="46" t="s">
         <v>53</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -4686,24 +4689,24 @@
       <c r="D19" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="18">
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
     </row>
     <row r="21" spans="2:6" ht="18">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="46" t="s">
         <v>56</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -4712,15 +4715,15 @@
       <c r="D21" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="18">
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="46" t="s">
         <v>57</v>
       </c>
       <c r="C22" s="5" t="s">

--- a/workflow/notebooks/filter_filename_overview.xlsx
+++ b/workflow/notebooks/filter_filename_overview.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephinelovemachine/soyadapt_data_analysis/workflow/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B13014-3E8A-464A-A290-E31109C3C33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F714EB35-AE05-1E4F-B8C9-E8B3C5E8361F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="780" windowWidth="21960" windowHeight="16940" xr2:uid="{FD3C29A1-7EF4-334D-B80E-034EF062DF78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="118">
   <si>
     <t>snp_sbpa.vcf.gz</t>
   </si>
@@ -3294,9 +3294,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">wgs_maf5.vcf.gz slip into the two populations. </t>
-  </si>
-  <si>
     <t>in R</t>
   </si>
   <si>
@@ -3304,6 +3301,33 @@
   </si>
   <si>
     <t>gds.cca &amp; gds.sbpa</t>
+  </si>
+  <si>
+    <t>accession overview</t>
+  </si>
+  <si>
+    <t>wgs</t>
+  </si>
+  <si>
+    <t>saples before and after</t>
+  </si>
+  <si>
+    <t>snps before and after</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(x ; 564) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(10000122 ; 8533444) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">564 accessions is including 6 and 7. SBPA=155 CCA=409 </t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>AF_cca and AF_sbpa calculated seperatly</t>
   </si>
 </sst>
 </file>
@@ -3951,10 +3975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B4530E-F0A9-564A-BF6E-54CBFF2B68A4}">
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="84" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3989,7 +4013,7 @@
         <v>69</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="41" customFormat="1">
@@ -4014,7 +4038,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -4034,7 +4058,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -4054,61 +4078,51 @@
         <v>6</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>109</v>
+      <c r="F7" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="41" customFormat="1">
-      <c r="A7" s="49" t="s">
+    <row r="8" spans="1:14" s="41" customFormat="1">
+      <c r="A8" s="49" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H8" s="24"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>65</v>
@@ -4120,11 +4134,29 @@
         <v>6</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>108</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="H9" s="24"/>
     </row>
-    <row r="11" spans="1:14">
-      <c r="E11" s="11"/>
+    <row r="10" spans="1:14">
+      <c r="A10" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="E12" s="11"/>
@@ -4133,94 +4165,76 @@
       <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="46" t="s">
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
     </row>
-    <row r="15" spans="1:14" s="22" customFormat="1" ht="19" thickBot="1">
-      <c r="A15" s="47" t="s">
+    <row r="16" spans="1:14" s="22" customFormat="1" ht="19" thickBot="1">
+      <c r="A16" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B16" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C16" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D16" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E16" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F16" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="N15" s="25"/>
+      <c r="N16" s="25"/>
     </row>
-    <row r="16" spans="1:14" ht="19" thickBot="1">
-      <c r="A16" s="46" t="s">
+    <row r="17" spans="1:14" ht="19" thickBot="1">
+      <c r="A17" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="N16" s="11"/>
+      <c r="N17" s="11"/>
     </row>
-    <row r="17" spans="1:14" s="21" customFormat="1">
-      <c r="A17" s="27" t="s">
+    <row r="18" spans="1:14" s="21" customFormat="1">
+      <c r="A18" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B18" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C18" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D18" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E18" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F18" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="N17" s="20"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="N18" s="11"/>
+      <c r="N18" s="20"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="31" t="s">
-        <v>87</v>
-      </c>
       <c r="C19" s="32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>82</v>
@@ -4231,355 +4245,392 @@
       <c r="N19" s="11"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>94</v>
+      <c r="A20" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>87</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="N20" s="11"/>
     </row>
-    <row r="21" spans="1:14" s="22" customFormat="1" ht="77" thickBot="1">
-      <c r="A21" s="34" t="s">
+    <row r="21" spans="1:14">
+      <c r="A21" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="N21" s="11"/>
+    </row>
+    <row r="22" spans="1:14" s="22" customFormat="1" ht="77" thickBot="1">
+      <c r="A22" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B22" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C22" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D22" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E22" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F22" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="N21" s="25"/>
+      <c r="N22" s="25"/>
     </row>
-    <row r="22" spans="1:14" s="41" customFormat="1" ht="19" thickBot="1">
-      <c r="A22" s="38"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="40"/>
-      <c r="N22" s="42"/>
+    <row r="23" spans="1:14" s="41" customFormat="1" ht="19" thickBot="1">
+      <c r="A23" s="38"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="40"/>
+      <c r="N23" s="42"/>
     </row>
-    <row r="23" spans="1:14" s="9" customFormat="1" ht="134" thickBot="1">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:14" s="9" customFormat="1" ht="134" thickBot="1">
+      <c r="A24" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B24" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D24" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E24" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="41" customFormat="1" ht="19" thickBot="1">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="40"/>
+    <row r="25" spans="1:14" s="41" customFormat="1" ht="19" thickBot="1">
+      <c r="A25" s="43"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="40"/>
     </row>
-    <row r="25" spans="1:14" s="9" customFormat="1" ht="19" thickBot="1">
-      <c r="A25" s="6" t="s">
+    <row r="26" spans="1:14" s="9" customFormat="1" ht="19" thickBot="1">
+      <c r="A26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B26" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C26" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D26" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F26" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="41" customFormat="1" ht="19" thickBot="1"/>
-    <row r="27" spans="1:14" s="9" customFormat="1" ht="39" thickBot="1">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:14" s="41" customFormat="1" ht="19" thickBot="1"/>
+    <row r="28" spans="1:14" s="9" customFormat="1" ht="39" thickBot="1">
+      <c r="A28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B28" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C28" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D28" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E28" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F28" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="41" customFormat="1" ht="19" thickBot="1">
-      <c r="A28" s="44"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="F28" s="51"/>
+    <row r="29" spans="1:14" s="41" customFormat="1" ht="19" thickBot="1">
+      <c r="A29" s="44"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="F29" s="51"/>
     </row>
-    <row r="29" spans="1:14" s="15" customFormat="1" ht="19" thickBot="1">
-      <c r="A29" s="12" t="s">
+    <row r="30" spans="1:14" s="15" customFormat="1" ht="19" thickBot="1">
+      <c r="A30" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B30" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C30" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D30" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" s="14"/>
-    </row>
-    <row r="30" spans="1:14" s="9" customFormat="1" ht="20" thickBot="1">
-      <c r="A30" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>37</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:14" s="9" customFormat="1" ht="20" thickBot="1">
+      <c r="A31" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="41" customFormat="1" ht="19" thickBot="1">
-      <c r="A31" s="44"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="F31" s="51"/>
+    <row r="32" spans="1:14" s="41" customFormat="1" ht="19" thickBot="1">
+      <c r="A32" s="44"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="F32" s="51"/>
     </row>
-    <row r="32" spans="1:14" s="9" customFormat="1" ht="19" thickBot="1">
-      <c r="A32" s="16" t="s">
+    <row r="33" spans="1:10" s="9" customFormat="1" ht="19" thickBot="1">
+      <c r="A33" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B33" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D33" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="9" customFormat="1" ht="19" thickBot="1">
-      <c r="A33" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="41" customFormat="1"/>
-    <row r="38" spans="1:6" ht="19" thickBot="1">
-      <c r="A38" s="47" t="s">
+    <row r="34" spans="1:10" s="9" customFormat="1" ht="19" thickBot="1">
+      <c r="A34" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="41" customFormat="1"/>
+    <row r="38" spans="1:10" ht="19" thickBot="1"/>
+    <row r="39" spans="1:10" ht="19" thickBot="1">
+      <c r="A39" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="47" t="s">
+      <c r="B39" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="47" t="s">
+      <c r="C39" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="47" t="s">
+      <c r="D39" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="47" t="s">
+      <c r="E39" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="F38" s="47" t="s">
+      <c r="F39" s="47" t="s">
         <v>76</v>
       </c>
+      <c r="H39" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="39" spans="1:6" ht="19" thickBot="1">
-      <c r="A39" s="46" t="s">
+    <row r="40" spans="1:10" ht="19" thickBot="1">
+      <c r="A40" s="46" t="s">
         <v>4</v>
       </c>
+      <c r="H40" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="40" spans="1:6" s="9" customFormat="1" ht="20" thickBot="1">
-      <c r="A40" s="3" t="s">
+    <row r="41" spans="1:10" s="9" customFormat="1" ht="20" thickBot="1">
+      <c r="A41" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E41" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F41" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="41" customFormat="1" ht="19" thickBot="1"/>
-    <row r="42" spans="1:6" s="9" customFormat="1" ht="19" thickBot="1">
-      <c r="A42" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F42" s="14"/>
-    </row>
-    <row r="43" spans="1:6" s="9" customFormat="1" ht="20" thickBot="1">
+    <row r="42" spans="1:10" s="41" customFormat="1" ht="19" thickBot="1"/>
+    <row r="43" spans="1:10" s="9" customFormat="1" ht="19" thickBot="1">
       <c r="A43" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F43" s="14"/>
+    </row>
+    <row r="44" spans="1:10" s="9" customFormat="1" ht="20" thickBot="1">
+      <c r="A44" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="41" customFormat="1" ht="19" thickBot="1"/>
-    <row r="45" spans="1:6" s="9" customFormat="1" ht="39" thickBot="1">
-      <c r="A45" s="16" t="s">
+    <row r="45" spans="1:10" s="41" customFormat="1" ht="19" thickBot="1"/>
+    <row r="46" spans="1:10" s="9" customFormat="1" ht="39" thickBot="1">
+      <c r="A46" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B46" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C46" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D46" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E46" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F46" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="41" customFormat="1" ht="19" thickBot="1"/>
-    <row r="47" spans="1:6" s="9" customFormat="1" ht="96" thickBot="1">
-      <c r="A47" s="16" t="s">
+    <row r="47" spans="1:10" s="41" customFormat="1" ht="19" thickBot="1"/>
+    <row r="48" spans="1:10" s="9" customFormat="1" ht="96" thickBot="1">
+      <c r="A48" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B48" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="52" t="s">
+      <c r="C48" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="D47" s="52" t="s">
+      <c r="D48" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E48" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F48" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="41" customFormat="1" ht="19" thickBot="1">
-      <c r="A48" s="53"/>
-      <c r="C48" s="50"/>
+    <row r="49" spans="1:6" s="41" customFormat="1" ht="19" thickBot="1">
+      <c r="A49" s="53"/>
+      <c r="C49" s="50"/>
     </row>
-    <row r="49" spans="1:6" s="9" customFormat="1" ht="19" thickBot="1">
-      <c r="A49" s="16" t="s">
+    <row r="50" spans="1:6" s="9" customFormat="1" ht="19" thickBot="1">
+      <c r="A50" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B50" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C50" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D50" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E50" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F50" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="C50" s="23"/>
     </row>
     <row r="51" spans="1:6">
       <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4587,156 +4638,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C79D64-19C6-714D-AF35-CD1AC21AAFB4}">
-  <dimension ref="B14:F22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388C8EDF-28F0-0C41-AA66-A4134CB2BA79}">
+  <dimension ref="A2:A4"/>
   <sheetViews>
-    <sheetView zoomScale="69" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="49.6640625" customWidth="1"/>
-    <col min="2" max="2" width="47.33203125" customWidth="1"/>
-    <col min="3" max="3" width="75.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="77.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="72.6640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="14" spans="2:6" ht="38">
-      <c r="B14" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="46" t="s">
-        <v>69</v>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>109</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="18">
-      <c r="B15" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-    </row>
-    <row r="16" spans="2:6" ht="18">
-      <c r="B16" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="18">
-      <c r="B17" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="18">
-      <c r="B18" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="18">
-      <c r="B19" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="18">
-      <c r="B20" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-    </row>
-    <row r="21" spans="2:6" ht="18">
-      <c r="B21" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="18">
-      <c r="B22" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>106</v>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
